--- a/docs/tabs/Tab_inputs.xlsx
+++ b/docs/tabs/Tab_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\HPRU\Shingrix\HPRU_RZV\docs\tabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1EB710-AFCE-4CA3-AD4E-1F7831AEA2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3845BB-F4FC-4F6B-BEFB-9CD7EA2A4E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="89">
   <si>
     <t>Age</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>HZ: herpes zoster, PHN: postherpetic neuralgia, ZVL: zoster vaccine live, RZV: recombinant zoster vaccine, GBP: British Pound Sterling.</t>
+  </si>
+  <si>
+    <t>Walker et al.4 and Forbes et al.14</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -414,31 +417,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -452,72 +437,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,7 +780,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection sqref="A1:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,10 +828,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="2">
@@ -866,7 +844,7 @@
       <c r="E2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="2"/>
       <c r="I2">
         <v>60</v>
@@ -882,8 +860,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C27" si="0">I3</f>
         <v>70</v>
@@ -894,7 +872,7 @@
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="2"/>
       <c r="I3">
         <v>70</v>
@@ -910,8 +888,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -922,7 +900,7 @@
       <c r="E4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="34"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="2"/>
       <c r="I4">
         <v>80</v>
@@ -938,8 +916,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -950,7 +928,7 @@
       <c r="E5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="34"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="2"/>
       <c r="I5">
         <v>90</v>
@@ -966,8 +944,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="2">
@@ -980,7 +958,7 @@
       <c r="E6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="34"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="2"/>
       <c r="I6">
         <v>60</v>
@@ -996,8 +974,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -1008,7 +986,7 @@
       <c r="E7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="34"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="2"/>
       <c r="I7">
         <v>70</v>
@@ -1024,8 +1002,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -1036,7 +1014,7 @@
       <c r="E8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="2"/>
       <c r="I8">
         <v>80</v>
@@ -1052,8 +1030,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -1064,7 +1042,7 @@
       <c r="E9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="34"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="2"/>
       <c r="I9">
         <v>90</v>
@@ -1080,21 +1058,21 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="7">
         <v>6.1000000000000004E-3</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="34"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="2"/>
       <c r="I10">
         <v>60</v>
@@ -1102,7 +1080,7 @@
       <c r="J10" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="6">
         <v>6.1000000000000004E-3</v>
       </c>
       <c r="L10" t="s">
@@ -1110,19 +1088,19 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="7">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="34"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="2"/>
       <c r="I11">
         <v>70</v>
@@ -1130,7 +1108,7 @@
       <c r="J11" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="L11" t="s">
@@ -1138,19 +1116,19 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="7">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="2"/>
       <c r="I12">
         <v>80</v>
@@ -1158,7 +1136,7 @@
       <c r="J12" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="6">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="L12" t="s">
@@ -1166,19 +1144,19 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="7">
         <v>0.09</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="34"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="2"/>
       <c r="I13">
         <v>90</v>
@@ -1186,7 +1164,7 @@
       <c r="J13" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="6">
         <v>0.09</v>
       </c>
       <c r="L13" t="s">
@@ -1194,21 +1172,21 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="7">
         <v>3.5799999999999998E-2</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="34"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="2"/>
       <c r="I14">
         <v>60</v>
@@ -1216,7 +1194,7 @@
       <c r="J14" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="6">
         <v>3.5799999999999998E-2</v>
       </c>
       <c r="L14" t="s">
@@ -1224,19 +1202,19 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="7">
         <v>5.7799999999999997E-2</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="34"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="2"/>
       <c r="I15">
         <v>70</v>
@@ -1244,7 +1222,7 @@
       <c r="J15" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="6">
         <v>5.7799999999999997E-2</v>
       </c>
       <c r="L15" t="s">
@@ -1252,19 +1230,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="7">
         <v>8.8400000000000006E-2</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="34"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="2"/>
       <c r="I16">
         <v>80</v>
@@ -1272,7 +1250,7 @@
       <c r="J16" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="6">
         <v>8.8400000000000006E-2</v>
       </c>
       <c r="L16" t="s">
@@ -1280,19 +1258,19 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="7">
         <v>8.6599999999999996E-2</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="2"/>
       <c r="I17">
         <v>90</v>
@@ -1300,7 +1278,7 @@
       <c r="J17" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="6">
         <v>8.6599999999999996E-2</v>
       </c>
       <c r="L17" t="s">
@@ -1308,24 +1286,24 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="5">
         <v>0.113</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="8"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="5"/>
       <c r="I18">
         <v>60</v>
       </c>
@@ -1340,20 +1318,20 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="10">
+      <c r="A19" s="27"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="2">
         <v>0.126</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="10"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="2"/>
       <c r="I19">
         <v>70</v>
       </c>
@@ -1368,20 +1346,20 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="10">
+      <c r="A20" s="27"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="2">
         <v>0.14099999999999999</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="10"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="2"/>
       <c r="I20">
         <v>80</v>
       </c>
@@ -1396,20 +1374,20 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="14">
+      <c r="A21" s="28"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="8">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="8">
         <v>0.156</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="14"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="8"/>
       <c r="I21">
         <v>90</v>
       </c>
@@ -1424,24 +1402,21 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="10">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2">
         <v>461</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="10"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="2"/>
       <c r="I22">
         <v>60</v>
       </c>
@@ -1456,22 +1431,19 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="10">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2">
         <v>103</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="10"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="2"/>
       <c r="I23">
         <v>60</v>
       </c>
@@ -1486,11 +1458,11 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -1500,8 +1472,8 @@
       <c r="E24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="10"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="2"/>
       <c r="I24">
         <v>60</v>
       </c>
@@ -1516,9 +1488,9 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="10">
+      <c r="A25" s="27"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -1528,8 +1500,8 @@
       <c r="E25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="10"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="2"/>
       <c r="I25">
         <v>70</v>
       </c>
@@ -1544,9 +1516,9 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="10">
+      <c r="A26" s="27"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -1556,8 +1528,8 @@
       <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="10"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="2"/>
       <c r="I26">
         <v>80</v>
       </c>
@@ -1572,9 +1544,9 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="10">
+      <c r="A27" s="27"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -1584,8 +1556,8 @@
       <c r="E27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="10"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="2"/>
       <c r="I27">
         <v>90</v>
       </c>
@@ -1600,15 +1572,15 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="25" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="17"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="11"/>
       <c r="I28" t="s">
         <v>49</v>
       </c>
@@ -1623,23 +1595,23 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="12">
         <f>I29</f>
         <v>0</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="16">
         <v>0.8</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="39"/>
+      <c r="F29" s="20"/>
       <c r="I29">
         <v>0</v>
       </c>
@@ -1654,19 +1626,19 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="18">
+      <c r="A30" s="21"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="12">
         <f t="shared" ref="C30:C38" si="1">I30</f>
         <v>5</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="16">
         <v>0.7</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="40"/>
+      <c r="F30" s="31"/>
       <c r="I30">
         <v>5</v>
       </c>
@@ -1681,21 +1653,21 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="28" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="16">
         <v>0.7</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="40"/>
+      <c r="F31" s="31"/>
       <c r="I31">
         <v>0</v>
       </c>
@@ -1710,19 +1682,19 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="18">
+      <c r="A32" s="21"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="12">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="40"/>
+      <c r="F32" s="31"/>
       <c r="I32">
         <v>5</v>
       </c>
@@ -1737,21 +1709,21 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="28" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="16">
         <v>0.77</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="40"/>
+      <c r="F33" s="31"/>
       <c r="I33">
         <v>0</v>
       </c>
@@ -1766,19 +1738,19 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="18">
+      <c r="A34" s="21"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="12">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="16">
         <v>0.65</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="40"/>
+      <c r="F34" s="31"/>
       <c r="I34">
         <v>5</v>
       </c>
@@ -1793,21 +1765,21 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="28" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="16">
         <v>0.65</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="40"/>
+      <c r="F35" s="31"/>
       <c r="I35">
         <v>0</v>
       </c>
@@ -1822,19 +1794,19 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="18">
+      <c r="A36" s="21"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="12">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="16">
         <v>0.51</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="40"/>
+      <c r="F36" s="31"/>
       <c r="I36">
         <v>5</v>
       </c>
@@ -1849,22 +1821,23 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="28" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="16">
         <v>0.65</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="27"/>
+      <c r="F37" s="21" t="s">
+        <v>88</v>
+      </c>
       <c r="I37">
         <v>0</v>
       </c>
@@ -1879,20 +1852,19 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="26">
+      <c r="A38" s="21"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="12">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="16">
         <v>0.32</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="27"/>
+      <c r="F38" s="21"/>
       <c r="I38">
         <v>5</v>
       </c>
@@ -1907,19 +1879,17 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="31" t="s">
+      <c r="A39" s="21"/>
+      <c r="B39" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="32">
+      <c r="D39" s="16">
         <v>0.48</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="36"/>
-      <c r="G39" s="27"/>
+      <c r="F39" s="23"/>
       <c r="I39" t="s">
         <v>66</v>
       </c>
@@ -1934,19 +1904,17 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="31" t="s">
+      <c r="A40" s="21"/>
+      <c r="B40" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="32">
+      <c r="D40" s="16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="27"/>
+      <c r="F40" s="32"/>
       <c r="I40" t="s">
         <v>66</v>
       </c>
@@ -1961,30 +1929,41 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F21"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="A42:G42"/>
@@ -1994,22 +1973,11 @@
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="A29:A40"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F18:F21"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
     <mergeCell ref="B24:B27"/>
+    <mergeCell ref="F29:F36"/>
+    <mergeCell ref="F37:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/tabs/Tab_inputs.xlsx
+++ b/docs/tabs/Tab_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\HPRU\Shingrix\HPRU_RZV\docs\tabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3845BB-F4FC-4F6B-BEFB-9CD7EA2A4E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9707A982-2392-49EB-98DF-77394FB5CFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
   <si>
     <t>Age</t>
   </si>
@@ -303,6 +303,18 @@
   </si>
   <si>
     <t>Walker et al.4 and Forbes et al.14</t>
+  </si>
+  <si>
+    <t>(2718 - 3059)</t>
+  </si>
+  <si>
+    <t>(3283 - 3543)</t>
+  </si>
+  <si>
+    <t>(3754 - 4098)</t>
+  </si>
+  <si>
+    <t>(4182 - 4712)</t>
   </si>
 </sst>
 </file>
@@ -405,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -452,50 +464,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,7 +789,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G42"/>
+      <selection activeCell="D22" sqref="D22:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,10 +837,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="2">
@@ -844,7 +853,7 @@
       <c r="E2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="2"/>
       <c r="I2">
         <v>60</v>
@@ -860,7 +869,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="19"/>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C27" si="0">I3</f>
@@ -872,7 +881,7 @@
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="2"/>
       <c r="I3">
         <v>70</v>
@@ -888,7 +897,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="19"/>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
@@ -900,7 +909,7 @@
       <c r="E4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="2"/>
       <c r="I4">
         <v>80</v>
@@ -916,7 +925,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="19"/>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
@@ -928,7 +937,7 @@
       <c r="E5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="2"/>
       <c r="I5">
         <v>90</v>
@@ -944,7 +953,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="19" t="s">
         <v>43</v>
       </c>
@@ -958,7 +967,7 @@
       <c r="E6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="2"/>
       <c r="I6">
         <v>60</v>
@@ -974,7 +983,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="19"/>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
@@ -986,7 +995,7 @@
       <c r="E7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="2"/>
       <c r="I7">
         <v>70</v>
@@ -1002,7 +1011,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="19"/>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
@@ -1014,7 +1023,7 @@
       <c r="E8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="2"/>
       <c r="I8">
         <v>80</v>
@@ -1030,7 +1039,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="19"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
@@ -1042,7 +1051,7 @@
       <c r="E9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="23"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="2"/>
       <c r="I9">
         <v>90</v>
@@ -1058,7 +1067,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="19" t="s">
         <v>42</v>
       </c>
@@ -1072,7 +1081,7 @@
       <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="2"/>
       <c r="I10">
         <v>60</v>
@@ -1088,7 +1097,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="19"/>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
@@ -1100,7 +1109,7 @@
       <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="2"/>
       <c r="I11">
         <v>70</v>
@@ -1116,7 +1125,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="19"/>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
@@ -1128,7 +1137,7 @@
       <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="2"/>
       <c r="I12">
         <v>80</v>
@@ -1144,7 +1153,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="19"/>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
@@ -1156,7 +1165,7 @@
       <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="2"/>
       <c r="I13">
         <v>90</v>
@@ -1172,7 +1181,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="19" t="s">
         <v>41</v>
       </c>
@@ -1186,7 +1195,7 @@
       <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="2"/>
       <c r="I14">
         <v>60</v>
@@ -1202,7 +1211,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="19"/>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
@@ -1214,7 +1223,7 @@
       <c r="E15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="23"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="2"/>
       <c r="I15">
         <v>70</v>
@@ -1230,7 +1239,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="19"/>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
@@ -1242,7 +1251,7 @@
       <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="2"/>
       <c r="I16">
         <v>80</v>
@@ -1258,7 +1267,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="19"/>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
@@ -1270,7 +1279,7 @@
       <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="23"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="2"/>
       <c r="I17">
         <v>90</v>
@@ -1286,10 +1295,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="5">
@@ -1302,7 +1311,7 @@
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="5"/>
       <c r="I18">
         <v>60</v>
@@ -1318,8 +1327,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -1330,7 +1339,7 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="2"/>
       <c r="I19">
         <v>70</v>
@@ -1346,8 +1355,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -1358,7 +1367,7 @@
       <c r="E20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="2"/>
       <c r="I20">
         <v>80</v>
@@ -1374,8 +1383,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -1386,7 +1395,7 @@
       <c r="E21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="24"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="8"/>
       <c r="I21">
         <v>90</v>
@@ -1402,7 +1411,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -1431,7 +1440,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="13" t="s">
         <v>45</v>
       </c>
@@ -1458,8 +1467,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="25" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="2">
@@ -1472,7 +1481,7 @@
       <c r="E24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="2"/>
       <c r="I24">
         <v>60</v>
@@ -1481,15 +1490,15 @@
         <v>10</v>
       </c>
       <c r="K24">
-        <v>2876</v>
+        <v>2896</v>
       </c>
       <c r="L24" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -1500,7 +1509,7 @@
       <c r="E25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="2"/>
       <c r="I25">
         <v>70</v>
@@ -1509,15 +1518,15 @@
         <v>10</v>
       </c>
       <c r="K25">
-        <v>3477</v>
+        <v>3417</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -1528,7 +1537,7 @@
       <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="2"/>
       <c r="I26">
         <v>80</v>
@@ -1537,15 +1546,15 @@
         <v>10</v>
       </c>
       <c r="K26">
-        <v>4077</v>
+        <v>3932</v>
       </c>
       <c r="L26" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -1565,10 +1574,10 @@
         <v>10</v>
       </c>
       <c r="K27">
-        <v>4617</v>
+        <v>4451</v>
       </c>
       <c r="L27" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1579,7 +1588,7 @@
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="30"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="11"/>
       <c r="I28" t="s">
         <v>49</v>
@@ -1595,10 +1604,10 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="20" t="s">
         <v>81</v>
       </c>
       <c r="C29" s="12">
@@ -1611,7 +1620,7 @@
       <c r="E29" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="20"/>
+      <c r="F29" s="30"/>
       <c r="I29">
         <v>0</v>
       </c>
@@ -1626,7 +1635,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="19"/>
       <c r="C30" s="12">
         <f t="shared" ref="C30:C38" si="1">I30</f>
@@ -1653,7 +1662,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="19" t="s">
         <v>82</v>
       </c>
@@ -1682,7 +1691,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="19"/>
       <c r="C32" s="12">
         <f t="shared" si="1"/>
@@ -1709,7 +1718,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="19" t="s">
         <v>83</v>
       </c>
@@ -1738,7 +1747,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="19"/>
       <c r="C34" s="12">
         <f t="shared" si="1"/>
@@ -1765,7 +1774,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="19" t="s">
         <v>84</v>
       </c>
@@ -1794,7 +1803,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="19"/>
       <c r="C36" s="12">
         <f t="shared" si="1"/>
@@ -1821,7 +1830,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="19" t="s">
         <v>85</v>
       </c>
@@ -1835,7 +1844,7 @@
       <c r="E37" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="31" t="s">
         <v>88</v>
       </c>
       <c r="I37">
@@ -1852,7 +1861,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="19"/>
       <c r="C38" s="12">
         <f t="shared" si="1"/>
@@ -1864,7 +1873,7 @@
       <c r="E38" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="21"/>
+      <c r="F38" s="31"/>
       <c r="I38">
         <v>5</v>
       </c>
@@ -1879,7 +1888,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="15" t="s">
         <v>71</v>
       </c>
@@ -1889,7 +1898,7 @@
       <c r="E39" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="23"/>
+      <c r="F39" s="25"/>
       <c r="I39" t="s">
         <v>66</v>
       </c>
@@ -1904,7 +1913,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="15" t="s">
         <v>72</v>
       </c>
@@ -1914,7 +1923,7 @@
       <c r="E40" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="32"/>
+      <c r="F40" s="27"/>
       <c r="I40" t="s">
         <v>66</v>
       </c>
@@ -1929,15 +1938,15 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
@@ -1952,18 +1961,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F18:F21"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="A42:G42"/>
@@ -1978,7 +1975,20 @@
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="F29:F36"/>
     <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>